--- a/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>155664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134701</v>
+        <v>134080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180412</v>
+        <v>179075</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2266531200454088</v>
+        <v>0.2266531200454087</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1961302443824146</v>
+        <v>0.195227123026505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2626874373687035</v>
+        <v>0.2607419648492587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>455</v>
@@ -762,19 +762,19 @@
         <v>259660</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>239065</v>
+        <v>239439</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282408</v>
+        <v>281746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3562994428810436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3280384191600864</v>
+        <v>0.3285528552116739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3875134151088727</v>
+        <v>0.3866042644831467</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>637</v>
@@ -783,19 +783,19 @@
         <v>415324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>384675</v>
+        <v>385216</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>450570</v>
+        <v>447565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2933985766451893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2717472116850823</v>
+        <v>0.272129343649933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.31829755210917</v>
+        <v>0.3161748994035094</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>319321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292020</v>
+        <v>290553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>348681</v>
+        <v>345996</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.464945360838725</v>
+        <v>0.4649453608387248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4251936779473008</v>
+        <v>0.4230586463203748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.507695009060934</v>
+        <v>0.5037856038891125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>556</v>
@@ -833,19 +833,19 @@
         <v>322368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299791</v>
+        <v>299750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344198</v>
+        <v>345609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4423450137348378</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.411366127136967</v>
+        <v>0.4113092530379266</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.472300170939954</v>
+        <v>0.4742356038614325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>918</v>
@@ -854,19 +854,19 @@
         <v>641688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>603239</v>
+        <v>600986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678550</v>
+        <v>673132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4533100868581825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4261486777306701</v>
+        <v>0.4245567437278133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4793508932394158</v>
+        <v>0.4755231009173662</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>211808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>184550</v>
+        <v>183990</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>242291</v>
+        <v>241234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3084015191158664</v>
+        <v>0.3084015191158663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2687136529603141</v>
+        <v>0.2678979524806444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3527867104184755</v>
+        <v>0.3512472893294485</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>221</v>
@@ -904,19 +904,19 @@
         <v>146742</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126772</v>
+        <v>130502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>165441</v>
+        <v>167171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2013555433841185</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1739539621633772</v>
+        <v>0.1790711442106337</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2270136554388137</v>
+        <v>0.2293875488196499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>403</v>
@@ -925,19 +925,19 @@
         <v>358549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>327585</v>
+        <v>327819</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>397770</v>
+        <v>398320</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2532913364966283</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2314172645841782</v>
+        <v>0.2315821227798832</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2809980864212748</v>
+        <v>0.2813869488316388</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>295394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>264977</v>
+        <v>262957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>330140</v>
+        <v>330429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2816183262334852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2526192911774732</v>
+        <v>0.2506934161355012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3147437596553752</v>
+        <v>0.3150196226267602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>527</v>
@@ -1050,19 +1050,19 @@
         <v>366930</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336790</v>
+        <v>337395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395438</v>
+        <v>396644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3426572177297819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3145108838209399</v>
+        <v>0.3150754034268551</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3692793821345545</v>
+        <v>0.3704047869550584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>812</v>
@@ -1071,19 +1071,19 @@
         <v>662325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>620231</v>
+        <v>615957</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704690</v>
+        <v>703668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.312453380765474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2925957532053204</v>
+        <v>0.2905794984170091</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3324391345650087</v>
+        <v>0.3319572421875739</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>514136</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>478203</v>
+        <v>479160</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>551415</v>
+        <v>553869</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4901585824700511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4559015708671434</v>
+        <v>0.456813779064287</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5256992981229748</v>
+        <v>0.5280388138750501</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>766</v>
@@ -1121,19 +1121,19 @@
         <v>528978</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>498763</v>
+        <v>498654</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>559139</v>
+        <v>556328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4939850070883581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4657690279832585</v>
+        <v>0.4656675418449535</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5221509746660102</v>
+        <v>0.5195262792314045</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1243</v>
@@ -1142,19 +1142,19 @@
         <v>1043114</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>995643</v>
+        <v>994610</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1089355</v>
+        <v>1090248</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4920915797587584</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.46969743993277</v>
+        <v>0.4692096813424284</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5139063089807487</v>
+        <v>0.5143272242242601</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>239387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210599</v>
+        <v>209770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272510</v>
+        <v>275178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2282230912964638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2007779736910752</v>
+        <v>0.1999873689153599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.259801096189956</v>
+        <v>0.2623445093707637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -1192,19 +1192,19 @@
         <v>174930</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152125</v>
+        <v>154947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199042</v>
+        <v>200681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.16335777518186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1420620554824228</v>
+        <v>0.1446968079044218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1858750320661358</v>
+        <v>0.1874058201714845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>425</v>
@@ -1213,19 +1213,19 @@
         <v>414317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378880</v>
+        <v>376762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>454502</v>
+        <v>454944</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1954550394757676</v>
+        <v>0.1954550394757677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1787376717495765</v>
+        <v>0.1777383102821003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2144125752256339</v>
+        <v>0.2146212157790509</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>295239</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>263735</v>
+        <v>263088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>323708</v>
+        <v>329089</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3680592452994495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3287844080966638</v>
+        <v>0.3279782223123949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.403549187899147</v>
+        <v>0.4102575425649864</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>388</v>
@@ -1338,19 +1338,19 @@
         <v>291336</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>266314</v>
+        <v>264947</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>317139</v>
+        <v>319270</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3590003970252357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3281662610507164</v>
+        <v>0.3264826162095962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3907955462787081</v>
+        <v>0.3934222109770604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>643</v>
@@ -1359,19 +1359,19 @@
         <v>586576</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>546677</v>
+        <v>546697</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>628349</v>
+        <v>626882</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3635035246293263</v>
+        <v>0.3635035246293264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3387778035238986</v>
+        <v>0.3387904886611933</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3893903465860991</v>
+        <v>0.3884814298083741</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>349575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>317756</v>
+        <v>316119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>378717</v>
+        <v>384272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4357962897193694</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3961290001479343</v>
+        <v>0.3940884486828632</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4721259164385747</v>
+        <v>0.4790507685025971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>434</v>
@@ -1409,19 +1409,19 @@
         <v>337366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311510</v>
+        <v>311016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>364834</v>
+        <v>363867</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4157204303485786</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3838598122551361</v>
+        <v>0.3832506187952737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4495678152203276</v>
+        <v>0.448377124107987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>723</v>
@@ -1430,19 +1430,19 @@
         <v>686941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>645989</v>
+        <v>647316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>729342</v>
+        <v>729882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4257000827030383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4003219340411806</v>
+        <v>0.4011447069621911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4519761960010087</v>
+        <v>0.4523108723875942</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>157338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131215</v>
+        <v>133609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184892</v>
+        <v>185373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1961444649811811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1635782776022728</v>
+        <v>0.1665631737573411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2304945371137694</v>
+        <v>0.2310941880720567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -1480,19 +1480,19 @@
         <v>182819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159870</v>
+        <v>158292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206537</v>
+        <v>206190</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2252791726261858</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1970007713156919</v>
+        <v>0.1950554800011303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2545064719599531</v>
+        <v>0.2540789805643723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -1501,19 +1501,19 @@
         <v>340156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>310191</v>
+        <v>310017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>378904</v>
+        <v>380239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2107963926676353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1922264122296255</v>
+        <v>0.1921189675157908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.234808445527094</v>
+        <v>0.2356358945621064</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>401624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>368391</v>
+        <v>367154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>434285</v>
+        <v>432386</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4065107630245364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3728732087081209</v>
+        <v>0.3716215172397386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4395691636420369</v>
+        <v>0.4376476723837985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>690</v>
@@ -1626,19 +1626,19 @@
         <v>493786</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>462923</v>
+        <v>465600</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>525724</v>
+        <v>523897</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4412580959352032</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4136787201315626</v>
+        <v>0.4160701974022604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4697987174357321</v>
+        <v>0.4681663531984397</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1089</v>
@@ -1647,19 +1647,19 @@
         <v>895410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>852978</v>
+        <v>850887</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>942765</v>
+        <v>937739</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4249651263393596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4048265114036659</v>
+        <v>0.4038342135919857</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.447439862328781</v>
+        <v>0.4450545014325707</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>420382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>387207</v>
+        <v>388705</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>456035</v>
+        <v>453536</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4254976643929712</v>
+        <v>0.4254976643929711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3919186403439277</v>
+        <v>0.3934349619334435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4615845869896429</v>
+        <v>0.4590547622282791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>574</v>
@@ -1697,19 +1697,19 @@
         <v>409973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>380482</v>
+        <v>382165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439975</v>
+        <v>438270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.366360801148309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3400073369335887</v>
+        <v>0.3415110802663375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3931716923242598</v>
+        <v>0.391648119937775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1014</v>
@@ -1718,19 +1718,19 @@
         <v>830355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>785188</v>
+        <v>791970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>872100</v>
+        <v>875656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3940899830488588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3726534431018138</v>
+        <v>0.3758721361714318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4139021949414279</v>
+        <v>0.415589595050096</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>165972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142243</v>
+        <v>143677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>192580</v>
+        <v>193751</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1679915725824925</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.143974173247653</v>
+        <v>0.1454249270850358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1949232610532899</v>
+        <v>0.1961085319645137</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>298</v>
@@ -1768,19 +1768,19 @@
         <v>215282</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>192895</v>
+        <v>194490</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>239678</v>
+        <v>238738</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1923811029164879</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1723749531268832</v>
+        <v>0.1738007894832907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2141812485941544</v>
+        <v>0.2133411808303176</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>462</v>
@@ -1789,19 +1789,19 @@
         <v>381255</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>348253</v>
+        <v>347624</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414897</v>
+        <v>414696</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1809448906117817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1652820376592775</v>
+        <v>0.1649838240043397</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1969118640360781</v>
+        <v>0.1968162519995042</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1147921</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1086494</v>
+        <v>1087159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1208033</v>
+        <v>1207532</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3255738506201656</v>
+        <v>0.3255738506201655</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3081518386876337</v>
+        <v>0.308340601834904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3426227424105324</v>
+        <v>0.3424808144206997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2060</v>
@@ -1914,19 +1914,19 @@
         <v>1411713</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1357760</v>
+        <v>1362717</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1462208</v>
+        <v>1462763</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3784580913973257</v>
+        <v>0.3784580913973256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.363994126747213</v>
+        <v>0.3653230067961203</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3919950284351483</v>
+        <v>0.3921437235460253</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3181</v>
@@ -1935,19 +1935,19 @@
         <v>2559634</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2478814</v>
+        <v>2481362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2640392</v>
+        <v>2640495</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3527605853220363</v>
+        <v>0.3527605853220362</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3416222468395615</v>
+        <v>0.3419733492094166</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3638903638137853</v>
+        <v>0.3639045773710116</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1603414</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1540924</v>
+        <v>1541119</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1664146</v>
+        <v>1665244</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4547608715859405</v>
+        <v>0.4547608715859404</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4370376275759036</v>
+        <v>0.437092798396299</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4719858555006251</v>
+        <v>0.4722972470176079</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2330</v>
@@ -1985,19 +1985,19 @@
         <v>1598684</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1549332</v>
+        <v>1542111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1658118</v>
+        <v>1654922</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4285821511686627</v>
+        <v>0.4285821511686626</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4153517109619487</v>
+        <v>0.4134156485608196</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4445154953489604</v>
+        <v>0.4436585519683875</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3898</v>
@@ -2006,19 +2006,19 @@
         <v>3202098</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3120990</v>
+        <v>3104414</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3286340</v>
+        <v>3285301</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4413029129131867</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.430124865546578</v>
+        <v>0.4278404800238873</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4529129248451215</v>
+        <v>0.4527696661446098</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>774504</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>721768</v>
+        <v>716018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>840258</v>
+        <v>826309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.219665277793894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2047081845324069</v>
+        <v>0.2030773517256237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.238314283499838</v>
+        <v>0.2343580114407724</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>966</v>
@@ -2056,19 +2056,19 @@
         <v>719773</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>675520</v>
+        <v>672862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>764403</v>
+        <v>763247</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1929597574340118</v>
+        <v>0.1929597574340117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1810963325874512</v>
+        <v>0.1803836332807903</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2049244694875111</v>
+        <v>0.2046145736663723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1645</v>
@@ -2077,19 +2077,19 @@
         <v>1494277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1425228</v>
+        <v>1421638</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1572015</v>
+        <v>1565823</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.205936501764777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1964203721110555</v>
+        <v>0.1959255777874047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2166501016390269</v>
+        <v>0.2157966656600261</v>
       </c>
     </row>
     <row r="23">
